--- a/library/procurement_export_po.xlsx
+++ b/library/procurement_export_po.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D49264-B646-4673-81F4-572344F19CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA9149C-C1AE-4F7A-B64A-4A63C4F2EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For End-User" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Supplier:</t>
   </si>
@@ -66,6 +66,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Gentlemen: </t>
     </r>
@@ -74,6 +75,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>Please furnish this office the following articles subject to the terms and conditions contained herein:</t>
     </r>
@@ -127,22 +129,10 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA</t>
-  </si>
-  <si>
-    <t>Regional Director</t>
-  </si>
-  <si>
     <t>FUNDS PROVIDED</t>
   </si>
   <si>
     <t>AMOUNT:</t>
-  </si>
-  <si>
-    <t>AGNES S. SANGEL</t>
-  </si>
-  <si>
-    <t>Regional Accountant</t>
   </si>
   <si>
     <t xml:space="preserve">Place of Delivery: </t>
@@ -179,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,40 +179,39 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,9 +361,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -385,28 +372,32 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,57 +438,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -522,91 +480,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:H35"/>
+  <dimension ref="A7:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,10 +1042,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1106,16 +1053,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1123,16 +1070,16 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1140,258 +1087,98 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="43" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="46"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="9" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-    </row>
-    <row r="25" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="55"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="E30" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="25">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="13">
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="A12:G12"/>
@@ -1399,7 +1186,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
@@ -1427,36 +1218,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1464,57 +1255,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="A13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1527,10 +1318,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1544,8 +1335,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1607,8 +1398,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1616,8 +1407,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1625,8 +1416,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1634,10 +1425,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="64"/>
+      <c r="C27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="45"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1645,10 +1436,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="66"/>
+      <c r="C28" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="47"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1656,10 +1447,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="66"/>
+      <c r="C29" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="47"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1667,10 +1458,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="66"/>
+      <c r="C30" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1678,8 +1469,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1768,8 +1559,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -1777,8 +1568,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -1786,8 +1577,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -1795,8 +1586,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -1804,8 +1595,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -1813,8 +1604,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -1822,78 +1613,78 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="68"/>
+      <c r="C47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="37"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="71"/>
+      <c r="A48" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="71"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
@@ -1902,61 +1693,39 @@
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
+      <c r="A60" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:G62"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:G52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -1970,6 +1739,28 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:G62"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:G52"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
